--- a/diabetic patients.xlsx
+++ b/diabetic patients.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>IgM</t>
   </si>
@@ -36,28 +36,19 @@
     <t>FBS</t>
   </si>
   <si>
-    <t>سابقه دردهای شکمی فوقانی</t>
+    <t>Stomach ache history</t>
   </si>
   <si>
-    <t>جنس</t>
+    <t>Gender</t>
   </si>
   <si>
-    <t>سن</t>
+    <t>age</t>
   </si>
   <si>
-    <t>ردیف</t>
+    <t>Diabet</t>
   </si>
   <si>
-    <t>ندارد</t>
-  </si>
-  <si>
-    <t>زن</t>
-  </si>
-  <si>
-    <t>دارد</t>
-  </si>
-  <si>
-    <t>مرد</t>
+    <t>Helicobacte</t>
   </si>
 </sst>
 </file>
@@ -375,15 +366,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,8 +402,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8.52</v>
       </c>
@@ -428,11 +422,11 @@
       <c r="E2">
         <v>151</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
         <v>61</v>
@@ -440,8 +434,11 @@
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>9.6300000000000008</v>
       </c>
@@ -457,20 +454,23 @@
       <c r="E3">
         <v>136</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
         <v>64</v>
       </c>
       <c r="I3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15.66</v>
       </c>
@@ -486,20 +486,23 @@
       <c r="E4">
         <v>86</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4">
         <v>61</v>
       </c>
       <c r="I4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18.39</v>
       </c>
@@ -515,20 +518,23 @@
       <c r="E5">
         <v>343</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5">
         <v>53</v>
       </c>
       <c r="I5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.5199999999999996</v>
       </c>
@@ -544,20 +550,23 @@
       <c r="E6">
         <v>105</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
         <v>45</v>
       </c>
       <c r="I6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>31.43</v>
       </c>
@@ -573,20 +582,23 @@
       <c r="E7">
         <v>141</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7">
         <v>53</v>
       </c>
       <c r="I7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30.99</v>
       </c>
@@ -602,20 +614,23 @@
       <c r="E8">
         <v>131</v>
       </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8">
         <v>53</v>
       </c>
       <c r="I8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14.33</v>
       </c>
@@ -631,20 +646,23 @@
       <c r="E9">
         <v>89</v>
       </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9">
         <v>58</v>
       </c>
       <c r="I9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>19.059999999999999</v>
       </c>
@@ -660,20 +678,23 @@
       <c r="E10">
         <v>331</v>
       </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10">
         <v>66</v>
       </c>
       <c r="I10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>26.3</v>
       </c>
@@ -689,20 +710,23 @@
       <c r="E11">
         <v>95</v>
       </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
       <c r="H11">
         <v>65</v>
       </c>
       <c r="I11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9.3800000000000008</v>
       </c>
@@ -718,20 +742,23 @@
       <c r="E12">
         <v>156</v>
       </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
       <c r="H12">
         <v>59</v>
       </c>
       <c r="I12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4.1500000000000004</v>
       </c>
@@ -747,20 +774,23 @@
       <c r="E13">
         <v>106</v>
       </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
       <c r="H13">
         <v>60</v>
       </c>
       <c r="I13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>29.99</v>
       </c>
@@ -776,20 +806,23 @@
       <c r="E14">
         <v>95</v>
       </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
       </c>
       <c r="H14">
         <v>67</v>
       </c>
       <c r="I14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5.17</v>
       </c>
@@ -805,20 +838,23 @@
       <c r="E15">
         <v>134</v>
       </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
       </c>
       <c r="H15">
         <v>80</v>
       </c>
       <c r="I15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>34.31</v>
       </c>
@@ -834,20 +870,23 @@
       <c r="E16">
         <v>325</v>
       </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
       </c>
       <c r="H16">
         <v>73</v>
       </c>
       <c r="I16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3.25</v>
       </c>
@@ -863,20 +902,23 @@
       <c r="E17">
         <v>112</v>
       </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
       <c r="H17">
         <v>77</v>
       </c>
       <c r="I17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2.13</v>
       </c>
@@ -892,20 +934,23 @@
       <c r="E18">
         <v>115</v>
       </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
       </c>
       <c r="H18">
         <v>60</v>
       </c>
       <c r="I18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15.9</v>
       </c>
@@ -921,20 +966,23 @@
       <c r="E19">
         <v>163</v>
       </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
       <c r="H19">
         <v>56</v>
       </c>
       <c r="I19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>21.92</v>
       </c>
@@ -950,20 +998,23 @@
       <c r="E20">
         <v>115</v>
       </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
       </c>
       <c r="H20">
         <v>68</v>
       </c>
       <c r="I20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12.18</v>
       </c>
@@ -979,20 +1030,23 @@
       <c r="E21">
         <v>111</v>
       </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
       </c>
       <c r="H21">
         <v>69</v>
       </c>
       <c r="I21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11.3</v>
       </c>
@@ -1008,20 +1062,23 @@
       <c r="E22">
         <v>132</v>
       </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
       <c r="H22">
         <v>44</v>
       </c>
       <c r="I22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9.5</v>
       </c>
@@ -1037,20 +1094,23 @@
       <c r="E23">
         <v>140</v>
       </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
-        <v>10</v>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
       </c>
       <c r="H23">
         <v>46</v>
       </c>
       <c r="I23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2.1</v>
       </c>
@@ -1066,20 +1126,23 @@
       <c r="E24">
         <v>136</v>
       </c>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" t="s">
-        <v>10</v>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
       </c>
       <c r="H24">
         <v>57</v>
       </c>
       <c r="I24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6.8</v>
       </c>
@@ -1095,20 +1158,23 @@
       <c r="E25">
         <v>200</v>
       </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" t="s">
-        <v>12</v>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
       </c>
       <c r="H25">
         <v>63</v>
       </c>
       <c r="I25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9.6999999999999993</v>
       </c>
@@ -1124,20 +1190,23 @@
       <c r="E26">
         <v>161</v>
       </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
       </c>
       <c r="H26">
         <v>70</v>
       </c>
       <c r="I26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5.5</v>
       </c>
@@ -1153,20 +1222,23 @@
       <c r="E27">
         <v>143</v>
       </c>
-      <c r="F27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" t="s">
-        <v>10</v>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
       </c>
       <c r="H27">
         <v>30</v>
       </c>
       <c r="I27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3.66</v>
       </c>
@@ -1182,20 +1254,23 @@
       <c r="E28">
         <v>152</v>
       </c>
-      <c r="F28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
       </c>
       <c r="H28">
         <v>42</v>
       </c>
       <c r="I28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8.52</v>
       </c>
@@ -1211,20 +1286,23 @@
       <c r="E29">
         <v>140</v>
       </c>
-      <c r="F29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
       </c>
       <c r="H29">
         <v>50</v>
       </c>
       <c r="I29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7.3</v>
       </c>
@@ -1240,20 +1318,23 @@
       <c r="E30">
         <v>158</v>
       </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
-        <v>10</v>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
       </c>
       <c r="H30">
         <v>46</v>
       </c>
       <c r="I30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6.81</v>
       </c>
@@ -1269,17 +1350,20 @@
       <c r="E31">
         <v>211</v>
       </c>
-      <c r="F31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" t="s">
-        <v>10</v>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
       </c>
       <c r="H31">
         <v>55</v>
       </c>
       <c r="I31">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
